--- a/Documentacion/plantillas/Provincia_anio.xlsx
+++ b/Documentacion/plantillas/Provincia_anio.xlsx
@@ -10688,7 +10688,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
